--- a/UseCase-Scenarij/Scenarij 1 - Slanje zahtjeva.xlsx
+++ b/UseCase-Scenarij/Scenarij 1 - Slanje zahtjeva.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Scenarij 1.</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Posljedice: Zahtjev uspješno poslan</t>
   </si>
   <si>
-    <t>Korisnik</t>
-  </si>
-  <si>
     <t>Sistem</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>5. Provjera ispravnosti podataka</t>
   </si>
   <si>
-    <t>Primarni akteri: Korisnik</t>
-  </si>
-  <si>
     <t>Vezani zahtjevi: -</t>
   </si>
   <si>
@@ -90,6 +84,15 @@
   </si>
   <si>
     <t>7. Obavještavanje korisnika o uspješnom prijemu  zahtjeva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podnosilac prijave </t>
+  </si>
+  <si>
+    <t>Primarni akteri: Podnosilac prijave</t>
+  </si>
+  <si>
+    <t>Podnosilac prijave</t>
   </si>
 </sst>
 </file>
@@ -574,7 +577,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,12 +598,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -615,7 +618,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -626,55 +629,55 @@
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="11"/>
     </row>
@@ -684,43 +687,43 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B25" s="2"/>
     </row>
